--- a/src/produtos/dataset/ECCOLI/Execucoes_MLP_BACKPROPAGATION.xlsx
+++ b/src/produtos/dataset/ECCOLI/Execucoes_MLP_BACKPROPAGATION.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c087956\workspace_luna\br.ufpe.cin.mlp.fss.pso\src\produtos\datasetECCOLI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo\workspace\br.ufpe.cin.mlp.fss.pso\src\produtos\dataset\ECCOLI\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9585" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9585" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="BACKPROPAGATION 1.0" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="1093">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="1129">
   <si>
     <t>Camada Escondida: 7 neuronios</t>
   </si>
@@ -3306,19 +3306,133 @@
   </si>
   <si>
     <t>0.5395493497908243</t>
+  </si>
+  <si>
+    <t>0.5451322$\pm$0.003340168</t>
+  </si>
+  <si>
+    <t>0.5442502$\pm$0.00253796</t>
+  </si>
+  <si>
+    <t>0.5514384$\pm$0.002344476</t>
+  </si>
+  <si>
+    <t>0.5470015$\pm$0.001661076</t>
+  </si>
+  <si>
+    <t>0.5443789$\pm$0.004025969</t>
+  </si>
+  <si>
+    <t>0.5513784$\pm$0.002494953</t>
+  </si>
+  <si>
+    <t>0.547053$\pm$0.002975005</t>
+  </si>
+  <si>
+    <t>0.5566224$\pm$0.002061743</t>
+  </si>
+  <si>
+    <t>0.5650047$\pm$0.001927627</t>
+  </si>
+  <si>
+    <t>0.6649158$\pm$0.002519383</t>
+  </si>
+  <si>
+    <t>0.7108031$\pm$0.0005477607</t>
+  </si>
+  <si>
+    <t>0.7335151$\pm$0.001027781</t>
+  </si>
+  <si>
+    <t>0.7460422$\pm$0.0006912401</t>
+  </si>
+  <si>
+    <t>0.7518429$\pm$0.001052021</t>
+  </si>
+  <si>
+    <t>0.7749591$\pm$0.001093315</t>
+  </si>
+  <si>
+    <t>0.8100963$\pm$0.002068625</t>
+  </si>
+  <si>
+    <t>0.8499738$\pm$0.0005279125</t>
+  </si>
+  <si>
+    <t>0.8576191$\pm$0.000270873</t>
+  </si>
+  <si>
+    <t>0.5978238$\pm$0.0007276078</t>
+  </si>
+  <si>
+    <t>0.6016529$\pm$0.0009331089</t>
+  </si>
+  <si>
+    <t>0.6042947$\pm$0.0002687133</t>
+  </si>
+  <si>
+    <t>0.60718$\pm$0.0002750778</t>
+  </si>
+  <si>
+    <t>0.6080053$\pm$0.0003476343</t>
+  </si>
+  <si>
+    <t>0.6460569$\pm$0.001842208</t>
+  </si>
+  <si>
+    <t>0.7395032$\pm$0.001023066</t>
+  </si>
+  <si>
+    <t>0.7689582$\pm$0.001690807</t>
+  </si>
+  <si>
+    <t>0.7922808$\pm$0.002341555</t>
+  </si>
+  <si>
+    <t>0.5687515$\pm$0.001382957</t>
+  </si>
+  <si>
+    <t>0.5655617$\pm$0.002351873</t>
+  </si>
+  <si>
+    <t>0.5588058$\pm$0.002005888</t>
+  </si>
+  <si>
+    <t>0.5703781$\pm$0.001853379</t>
+  </si>
+  <si>
+    <t>0.5568047$\pm$0.001905507</t>
+  </si>
+  <si>
+    <t>0.5787409$\pm$0.002268669</t>
+  </si>
+  <si>
+    <t>0.5761019$\pm$0.001963718</t>
+  </si>
+  <si>
+    <t>0.5992453$\pm$0.001105528</t>
+  </si>
+  <si>
+    <t>0.6315804$\pm$0.001074079</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3341,8 +3455,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3623,16 +3740,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -4576,6 +4698,35 @@
       </c>
       <c r="I36">
         <v>21252</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>1109</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>1110</v>
       </c>
     </row>
   </sheetData>
@@ -4586,16 +4737,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -5539,6 +5693,35 @@
       </c>
       <c r="I36">
         <v>23835</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>1119</v>
       </c>
     </row>
   </sheetData>
@@ -5548,16 +5731,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -6501,6 +6685,35 @@
       </c>
       <c r="I36">
         <v>45424</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>1128</v>
       </c>
     </row>
   </sheetData>
@@ -6510,16 +6723,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -7465,7 +7681,37 @@
         <v>265129</v>
       </c>
     </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>1097</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>1101</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/produtos/dataset/ECCOLI/Execucoes_MLP_BACKPROPAGATION.xlsx
+++ b/src/produtos/dataset/ECCOLI/Execucoes_MLP_BACKPROPAGATION.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9585" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9585"/>
   </bookViews>
   <sheets>
     <sheet name="BACKPROPAGATION 1.0" sheetId="1" r:id="rId1"/>
@@ -3742,8 +3742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView tabSelected="1" topLeftCell="D28" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4739,7 +4739,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D28" workbookViewId="0">
       <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
@@ -5733,7 +5733,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="D25" workbookViewId="0">
       <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
